--- a/gaal/gaal-2025-1/2025-1-gaal-lista-notas.xlsx
+++ b/gaal/gaal-2025-1/2025-1-gaal-lista-notas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
   <si>
     <t xml:space="preserve">CPF</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">NF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paracasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ok</t>
   </si>
   <si>
     <t xml:space="preserve">ausente</t>
@@ -387,7 +381,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -432,9 +426,6 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -467,11 +458,8 @@
         <v>APR.</v>
       </c>
       <c r="J2" s="2" t="n">
-        <f aca="false">G2</f>
+        <f aca="false">IF(OR(G2&lt;4,G2&gt;5.9),G2,IF(I2&gt;6,6,(I2+G2)/2))</f>
         <v>8.17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -507,7 +495,7 @@
         <v>APR.</v>
       </c>
       <c r="J3" s="2" t="n">
-        <f aca="false">G3</f>
+        <f aca="false">IF(OR(G3&lt;4,G3&gt;5.9),G3,IF(I3&gt;6,6,(I3+G3)/2))</f>
         <v>7.02</v>
       </c>
       <c r="L3" s="2"/>
@@ -519,13 +507,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="n">
         <f aca="false">IF(B4="ausente",0,B4)*0.2+IF(C4="ausente",0,C4)*0.3+IF(D4="ausente",0,D4)*0.5</f>
@@ -544,7 +532,7 @@
         <v>REP.</v>
       </c>
       <c r="J4" s="2" t="n">
-        <f aca="false">G4</f>
+        <f aca="false">IF(OR(G4&lt;4,G4&gt;5.9),G4,IF(I4&gt;6,6,(I4+G4)/2))</f>
         <v>0.5</v>
       </c>
       <c r="L4" s="2"/>
@@ -581,11 +569,8 @@
         <v>APR.</v>
       </c>
       <c r="J5" s="2" t="n">
-        <f aca="false">G5</f>
+        <f aca="false">IF(OR(G5&lt;4,G5&gt;5.9),G5,IF(I5&gt;6,6,(I5+G5)/2))</f>
         <v>9.12</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -620,9 +605,12 @@
         <f aca="false">IF(G6&lt;4,"REP.",IF(G6&lt;5.9,"VS","APR."))</f>
         <v>VS</v>
       </c>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="J6" s="2" t="n">
-        <f aca="false">G6</f>
-        <v>4.01</v>
+        <f aca="false">IF(OR(G6&lt;4,G6&gt;5.9),G6,IF(I6&gt;6,6,(I6+G6)/2))</f>
+        <v>2.005</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -638,28 +626,31 @@
       <c r="C7" s="2" t="n">
         <v>4.8</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
+      <c r="D7" s="2" t="n">
+        <v>5.4</v>
       </c>
       <c r="E7" s="2" t="n">
         <f aca="false">IF(B7="ausente",0,B7)*0.2+IF(C7="ausente",0,C7)*0.3+IF(D7="ausente",0,D7)*0.5</f>
-        <v>2.78</v>
+        <v>5.48</v>
       </c>
       <c r="F7" s="2" t="n">
         <f aca="false">IF(B7="ausente",0,B7)*0.2+IF(C7="ausente",0,C7)*0.5+IF(D7="ausente",0,D7)*0.3</f>
-        <v>3.74</v>
+        <v>5.36</v>
       </c>
       <c r="G7" s="2" t="n">
         <f aca="false">MAX(E7:F7)</f>
-        <v>3.74</v>
+        <v>5.48</v>
       </c>
       <c r="H7" s="3" t="str">
         <f aca="false">IF(G7&lt;4,"REP.",IF(G7&lt;5.9,"VS","APR."))</f>
-        <v>REP.</v>
+        <v>VS</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <f aca="false">G7</f>
-        <v>3.74</v>
+        <f aca="false">IF(OR(G7&lt;4,G7&gt;5.9),G7,IF(I7&gt;6,6,(I7+G7)/2))</f>
+        <v>2.74</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -695,7 +686,7 @@
         <v>APR.</v>
       </c>
       <c r="J8" s="2" t="n">
-        <f aca="false">G8</f>
+        <f aca="false">IF(OR(G8&lt;4,G8&gt;5.9),G8,IF(I8&gt;6,6,(I8+G8)/2))</f>
         <v>6.4</v>
       </c>
       <c r="L8" s="2"/>
@@ -710,10 +701,10 @@
         <v>0.9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="n">
         <f aca="false">IF(B9="ausente",0,B9)*0.2+IF(C9="ausente",0,C9)*0.3+IF(D9="ausente",0,D9)*0.5</f>
@@ -732,7 +723,7 @@
         <v>REP.</v>
       </c>
       <c r="J9" s="2" t="n">
-        <f aca="false">G9</f>
+        <f aca="false">IF(OR(G9&lt;4,G9&gt;5.9),G9,IF(I9&gt;6,6,(I9+G9)/2))</f>
         <v>0.18</v>
       </c>
       <c r="L9" s="2"/>
@@ -743,8 +734,8 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
+      <c r="B10" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.7</v>
@@ -754,23 +745,23 @@
       </c>
       <c r="E10" s="2" t="n">
         <f aca="false">IF(B10="ausente",0,B10)*0.2+IF(C10="ausente",0,C10)*0.3+IF(D10="ausente",0,D10)*0.5</f>
-        <v>2.01</v>
+        <v>2.21</v>
       </c>
       <c r="F10" s="2" t="n">
         <f aca="false">IF(B10="ausente",0,B10)*0.2+IF(C10="ausente",0,C10)*0.5+IF(D10="ausente",0,D10)*0.3</f>
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="G10" s="2" t="n">
         <f aca="false">MAX(E10:F10)</f>
-        <v>2.01</v>
+        <v>2.21</v>
       </c>
       <c r="H10" s="3" t="str">
         <f aca="false">IF(G10&lt;4,"REP.",IF(G10&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J10" s="2" t="n">
-        <f aca="false">G10</f>
-        <v>2.01</v>
+        <f aca="false">IF(OR(G10&lt;4,G10&gt;5.9),G10,IF(I10&gt;6,6,(I10+G10)/2))</f>
+        <v>2.21</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -786,31 +777,28 @@
       <c r="C11" s="2" t="n">
         <v>2.7</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
+      <c r="D11" s="2" t="n">
+        <v>1.3</v>
       </c>
       <c r="E11" s="2" t="n">
         <f aca="false">IF(B11="ausente",0,B11)*0.2+IF(C11="ausente",0,C11)*0.3+IF(D11="ausente",0,D11)*0.5</f>
-        <v>1.31</v>
+        <v>1.96</v>
       </c>
       <c r="F11" s="2" t="n">
         <f aca="false">IF(B11="ausente",0,B11)*0.2+IF(C11="ausente",0,C11)*0.5+IF(D11="ausente",0,D11)*0.3</f>
-        <v>1.85</v>
+        <v>2.24</v>
       </c>
       <c r="G11" s="2" t="n">
         <f aca="false">MAX(E11:F11)</f>
-        <v>1.85</v>
+        <v>2.24</v>
       </c>
       <c r="H11" s="3" t="str">
         <f aca="false">IF(G11&lt;4,"REP.",IF(G11&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J11" s="2" t="n">
-        <f aca="false">G11</f>
-        <v>1.85</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>11</v>
+        <f aca="false">IF(OR(G11&lt;4,G11&gt;5.9),G11,IF(I11&gt;6,6,(I11+G11)/2))</f>
+        <v>2.24</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -821,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="n">
         <f aca="false">IF(B12="ausente",0,B12)*0.2+IF(C12="ausente",0,C12)*0.3+IF(D12="ausente",0,D12)*0.5</f>
@@ -846,7 +834,7 @@
         <v>REP.</v>
       </c>
       <c r="J12" s="2" t="n">
-        <f aca="false">G12</f>
+        <f aca="false">IF(OR(G12&lt;4,G12&gt;5.9),G12,IF(I12&gt;6,6,(I12+G12)/2))</f>
         <v>0</v>
       </c>
       <c r="L12" s="2"/>
@@ -858,13 +846,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="n">
         <f aca="false">IF(B13="ausente",0,B13)*0.2+IF(C13="ausente",0,C13)*0.3+IF(D13="ausente",0,D13)*0.5</f>
@@ -883,7 +871,7 @@
         <v>REP.</v>
       </c>
       <c r="J13" s="2" t="n">
-        <f aca="false">G13</f>
+        <f aca="false">IF(OR(G13&lt;4,G13&gt;5.9),G13,IF(I13&gt;6,6,(I13+G13)/2))</f>
         <v>0</v>
       </c>
       <c r="L13" s="2"/>
@@ -920,11 +908,8 @@
         <v>APR.</v>
       </c>
       <c r="J14" s="2" t="n">
-        <f aca="false">G14</f>
+        <f aca="false">IF(OR(G14&lt;4,G14&gt;5.9),G14,IF(I14&gt;6,6,(I14+G14)/2))</f>
         <v>8.75</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -935,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="n">
         <f aca="false">IF(B15="ausente",0,B15)*0.2+IF(C15="ausente",0,C15)*0.3+IF(D15="ausente",0,D15)*0.5</f>
@@ -960,7 +945,7 @@
         <v>REP.</v>
       </c>
       <c r="J15" s="2" t="n">
-        <f aca="false">G15</f>
+        <f aca="false">IF(OR(G15&lt;4,G15&gt;5.9),G15,IF(I15&gt;6,6,(I15+G15)/2))</f>
         <v>0</v>
       </c>
       <c r="L15" s="2"/>
@@ -972,13 +957,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="n">
         <f aca="false">IF(B16="ausente",0,B16)*0.2+IF(C16="ausente",0,C16)*0.3+IF(D16="ausente",0,D16)*0.5</f>
@@ -997,7 +982,7 @@
         <v>REP.</v>
       </c>
       <c r="J16" s="2" t="n">
-        <f aca="false">G16</f>
+        <f aca="false">IF(OR(G16&lt;4,G16&gt;5.9),G16,IF(I16&gt;6,6,(I16+G16)/2))</f>
         <v>0</v>
       </c>
       <c r="L16" s="2"/>
@@ -1015,7 +1000,7 @@
         <v>4.7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="n">
         <f aca="false">IF(B17="ausente",0,B17)*0.2+IF(C17="ausente",0,C17)*0.3+IF(D17="ausente",0,D17)*0.5</f>
@@ -1034,7 +1019,7 @@
         <v>REP.</v>
       </c>
       <c r="J17" s="2" t="n">
-        <f aca="false">G17</f>
+        <f aca="false">IF(OR(G17&lt;4,G17&gt;5.9),G17,IF(I17&gt;6,6,(I17+G17)/2))</f>
         <v>2.65</v>
       </c>
       <c r="L17" s="2"/>
@@ -1052,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="n">
         <f aca="false">IF(B18="ausente",0,B18)*0.2+IF(C18="ausente",0,C18)*0.3+IF(D18="ausente",0,D18)*0.5</f>
@@ -1071,11 +1056,8 @@
         <v>REP.</v>
       </c>
       <c r="J18" s="2" t="n">
-        <f aca="false">G18</f>
+        <f aca="false">IF(OR(G18&lt;4,G18&gt;5.9),G18,IF(I18&gt;6,6,(I18+G18)/2))</f>
         <v>2.26</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1111,7 +1093,7 @@
         <v>APR.</v>
       </c>
       <c r="J19" s="2" t="n">
-        <f aca="false">G19</f>
+        <f aca="false">IF(OR(G19&lt;4,G19&gt;5.9),G19,IF(I19&gt;6,6,(I19+G19)/2))</f>
         <v>6.3</v>
       </c>
       <c r="L19" s="2"/>
@@ -1148,7 +1130,7 @@
         <v>REP.</v>
       </c>
       <c r="J20" s="2" t="n">
-        <f aca="false">G20</f>
+        <f aca="false">IF(OR(G20&lt;4,G20&gt;5.9),G20,IF(I20&gt;6,6,(I20+G20)/2))</f>
         <v>2.75</v>
       </c>
       <c r="L20" s="2"/>
@@ -1162,34 +1144,31 @@
       <c r="B21" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
+      <c r="C21" s="2" t="n">
+        <v>1.3</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="E21" s="2" t="n">
         <f aca="false">IF(B21="ausente",0,B21)*0.2+IF(C21="ausente",0,C21)*0.3+IF(D21="ausente",0,D21)*0.5</f>
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2" t="n">
         <f aca="false">IF(B21="ausente",0,B21)*0.2+IF(C21="ausente",0,C21)*0.5+IF(D21="ausente",0,D21)*0.3</f>
-        <v>0.51</v>
+        <v>1.16</v>
       </c>
       <c r="G21" s="2" t="n">
         <f aca="false">MAX(E21:F21)</f>
-        <v>0.61</v>
+        <v>1.16</v>
       </c>
       <c r="H21" s="3" t="str">
         <f aca="false">IF(G21&lt;4,"REP.",IF(G21&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J21" s="2" t="n">
-        <f aca="false">G21</f>
-        <v>0.61</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>11</v>
+        <f aca="false">IF(OR(G21&lt;4,G21&gt;5.9),G21,IF(I21&gt;6,6,(I21+G21)/2))</f>
+        <v>1.16</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1205,31 +1184,31 @@
       <c r="C22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
+      <c r="D22" s="2" t="n">
+        <v>2.6</v>
       </c>
       <c r="E22" s="2" t="n">
         <f aca="false">IF(B22="ausente",0,B22)*0.2+IF(C22="ausente",0,C22)*0.3+IF(D22="ausente",0,D22)*0.5</f>
-        <v>2.86</v>
+        <v>4.16</v>
       </c>
       <c r="F22" s="2" t="n">
         <f aca="false">IF(B22="ausente",0,B22)*0.2+IF(C22="ausente",0,C22)*0.5+IF(D22="ausente",0,D22)*0.3</f>
-        <v>4.06</v>
+        <v>4.84</v>
       </c>
       <c r="G22" s="2" t="n">
         <f aca="false">MAX(E22:F22)</f>
-        <v>4.06</v>
+        <v>4.84</v>
       </c>
       <c r="H22" s="3" t="str">
         <f aca="false">IF(G22&lt;4,"REP.",IF(G22&lt;5.9,"VS","APR."))</f>
         <v>VS</v>
       </c>
+      <c r="I22" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="J22" s="2" t="n">
-        <f aca="false">G22</f>
-        <v>4.06</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>11</v>
+        <f aca="false">IF(OR(G22&lt;4,G22&gt;5.9),G22,IF(I22&gt;6,6,(I22+G22)/2))</f>
+        <v>2.42</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1265,7 +1244,7 @@
         <v>APR.</v>
       </c>
       <c r="J23" s="2" t="n">
-        <f aca="false">G23</f>
+        <f aca="false">IF(OR(G23&lt;4,G23&gt;5.9),G23,IF(I23&gt;6,6,(I23+G23)/2))</f>
         <v>6.52</v>
       </c>
       <c r="L23" s="2"/>
@@ -1277,13 +1256,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2" t="n">
         <f aca="false">IF(B24="ausente",0,B24)*0.2+IF(C24="ausente",0,C24)*0.3+IF(D24="ausente",0,D24)*0.5</f>
@@ -1302,7 +1281,7 @@
         <v>REP.</v>
       </c>
       <c r="J24" s="2" t="n">
-        <f aca="false">G24</f>
+        <f aca="false">IF(OR(G24&lt;4,G24&gt;5.9),G24,IF(I24&gt;6,6,(I24+G24)/2))</f>
         <v>0</v>
       </c>
       <c r="L24" s="2"/>
@@ -1338,9 +1317,12 @@
         <f aca="false">IF(G25&lt;4,"REP.",IF(G25&lt;5.9,"VS","APR."))</f>
         <v>VS</v>
       </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" s="2" t="n">
-        <f aca="false">G25</f>
-        <v>4.04</v>
+        <f aca="false">IF(OR(G25&lt;4,G25&gt;5.9),G25,IF(I25&gt;6,6,(I25+G25)/2))</f>
+        <v>2.02</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1357,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2" t="n">
         <f aca="false">IF(B26="ausente",0,B26)*0.2+IF(C26="ausente",0,C26)*0.3+IF(D26="ausente",0,D26)*0.5</f>
@@ -1376,7 +1358,7 @@
         <v>REP.</v>
       </c>
       <c r="J26" s="2" t="n">
-        <f aca="false">G26</f>
+        <f aca="false">IF(OR(G26&lt;4,G26&gt;5.9),G26,IF(I26&gt;6,6,(I26+G26)/2))</f>
         <v>0.7</v>
       </c>
       <c r="L26" s="2"/>
@@ -1388,13 +1370,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2" t="n">
         <f aca="false">IF(B27="ausente",0,B27)*0.2+IF(C27="ausente",0,C27)*0.3+IF(D27="ausente",0,D27)*0.5</f>
@@ -1413,7 +1395,7 @@
         <v>REP.</v>
       </c>
       <c r="J27" s="2" t="n">
-        <f aca="false">G27</f>
+        <f aca="false">IF(OR(G27&lt;4,G27&gt;5.9),G27,IF(I27&gt;6,6,(I27+G27)/2))</f>
         <v>0</v>
       </c>
       <c r="L27" s="2"/>
@@ -1427,31 +1409,31 @@
       <c r="B28" s="2" t="n">
         <v>4.6</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
+      <c r="C28" s="2" t="n">
+        <v>2.3</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>1.5</v>
       </c>
       <c r="E28" s="2" t="n">
         <f aca="false">IF(B28="ausente",0,B28)*0.2+IF(C28="ausente",0,C28)*0.3+IF(D28="ausente",0,D28)*0.5</f>
-        <v>1.67</v>
+        <v>2.36</v>
       </c>
       <c r="F28" s="2" t="n">
         <f aca="false">IF(B28="ausente",0,B28)*0.2+IF(C28="ausente",0,C28)*0.5+IF(D28="ausente",0,D28)*0.3</f>
-        <v>1.37</v>
+        <v>2.52</v>
       </c>
       <c r="G28" s="2" t="n">
         <f aca="false">MAX(E28:F28)</f>
-        <v>1.67</v>
+        <v>2.52</v>
       </c>
       <c r="H28" s="3" t="str">
         <f aca="false">IF(G28&lt;4,"REP.",IF(G28&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J28" s="2" t="n">
-        <f aca="false">G28</f>
-        <v>1.67</v>
+        <f aca="false">IF(OR(G28&lt;4,G28&gt;5.9),G28,IF(I28&gt;6,6,(I28+G28)/2))</f>
+        <v>2.52</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1462,13 +1444,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2" t="n">
         <f aca="false">IF(B29="ausente",0,B29)*0.2+IF(C29="ausente",0,C29)*0.3+IF(D29="ausente",0,D29)*0.5</f>
@@ -1487,7 +1469,7 @@
         <v>REP.</v>
       </c>
       <c r="J29" s="2" t="n">
-        <f aca="false">G29</f>
+        <f aca="false">IF(OR(G29&lt;4,G29&gt;5.9),G29,IF(I29&gt;6,6,(I29+G29)/2))</f>
         <v>0</v>
       </c>
       <c r="L29" s="2"/>
@@ -1501,34 +1483,31 @@
       <c r="B30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>12</v>
+      <c r="C30" s="2" t="n">
+        <v>1.5</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>0.7</v>
       </c>
       <c r="E30" s="2" t="n">
         <f aca="false">IF(B30="ausente",0,B30)*0.2+IF(C30="ausente",0,C30)*0.3+IF(D30="ausente",0,D30)*0.5</f>
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="F30" s="2" t="n">
         <f aca="false">IF(B30="ausente",0,B30)*0.2+IF(C30="ausente",0,C30)*0.5+IF(D30="ausente",0,D30)*0.3</f>
-        <v>0.61</v>
+        <v>1.36</v>
       </c>
       <c r="G30" s="2" t="n">
         <f aca="false">MAX(E30:F30)</f>
-        <v>0.75</v>
+        <v>1.36</v>
       </c>
       <c r="H30" s="3" t="str">
         <f aca="false">IF(G30&lt;4,"REP.",IF(G30&lt;5.9,"VS","APR."))</f>
         <v>REP.</v>
       </c>
       <c r="J30" s="2" t="n">
-        <f aca="false">G30</f>
-        <v>0.75</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>11</v>
+        <f aca="false">IF(OR(G30&lt;4,G30&gt;5.9),G30,IF(I30&gt;6,6,(I30+G30)/2))</f>
+        <v>1.36</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1545,7 +1524,6 @@
         <v>5.7</v>
       </c>
       <c r="D31" s="2" t="n">
-        <f aca="false">1.7+2.7+2.5</f>
         <v>6.9</v>
       </c>
       <c r="E31" s="2" t="n">
@@ -1564,12 +1542,12 @@
         <f aca="false">IF(G31&lt;4,"REP.",IF(G31&lt;5.9,"VS","APR."))</f>
         <v>VS</v>
       </c>
+      <c r="I31" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="2" t="n">
-        <f aca="false">G31</f>
-        <v>5.58</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>11</v>
+        <f aca="false">IF(OR(G31&lt;4,G31&gt;5.9),G31,IF(I31&gt;6,6,(I31+G31)/2))</f>
+        <v>2.79</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1580,13 +1558,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2" t="n">
         <f aca="false">IF(B32="ausente",0,B32)*0.2+IF(C32="ausente",0,C32)*0.3+IF(D32="ausente",0,D32)*0.5</f>
@@ -1605,7 +1583,7 @@
         <v>REP.</v>
       </c>
       <c r="J32" s="2" t="n">
-        <f aca="false">G32</f>
+        <f aca="false">IF(OR(G32&lt;4,G32&gt;5.9),G32,IF(I32&gt;6,6,(I32+G32)/2))</f>
         <v>0.5</v>
       </c>
       <c r="L32" s="2"/>
@@ -1642,7 +1620,7 @@
         <v>REP.</v>
       </c>
       <c r="J33" s="2" t="n">
-        <f aca="false">G33</f>
+        <f aca="false">IF(OR(G33&lt;4,G33&gt;5.9),G33,IF(I33&gt;6,6,(I33+G33)/2))</f>
         <v>2.08</v>
       </c>
       <c r="L33" s="2"/>
@@ -1679,7 +1657,7 @@
         <v>APR.</v>
       </c>
       <c r="J34" s="2" t="n">
-        <f aca="false">G34</f>
+        <f aca="false">IF(OR(G34&lt;4,G34&gt;5.9),G34,IF(I34&gt;6,6,(I34+G34)/2))</f>
         <v>5.97</v>
       </c>
       <c r="L34" s="2"/>
@@ -1696,31 +1674,28 @@
       <c r="C35" s="2" t="n">
         <v>8.8</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>12</v>
+      <c r="D35" s="2" t="n">
+        <v>6.3</v>
       </c>
       <c r="E35" s="2" t="n">
         <f aca="false">IF(B35="ausente",0,B35)*0.2+IF(C35="ausente",0,C35)*0.3+IF(D35="ausente",0,D35)*0.5</f>
-        <v>3.62</v>
+        <v>6.77</v>
       </c>
       <c r="F35" s="2" t="n">
         <f aca="false">IF(B35="ausente",0,B35)*0.2+IF(C35="ausente",0,C35)*0.5+IF(D35="ausente",0,D35)*0.3</f>
-        <v>5.38</v>
+        <v>7.27</v>
       </c>
       <c r="G35" s="2" t="n">
         <f aca="false">MAX(E35:F35)</f>
-        <v>5.38</v>
+        <v>7.27</v>
       </c>
       <c r="H35" s="3" t="str">
         <f aca="false">IF(G35&lt;4,"REP.",IF(G35&lt;5.9,"VS","APR."))</f>
-        <v>VS</v>
+        <v>APR.</v>
       </c>
       <c r="J35" s="2" t="n">
-        <f aca="false">G35</f>
-        <v>5.38</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>11</v>
+        <f aca="false">IF(OR(G35&lt;4,G35&gt;5.9),G35,IF(I35&gt;6,6,(I35+G35)/2))</f>
+        <v>7.27</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -1731,13 +1706,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E36" s="2" t="n">
         <f aca="false">IF(B36="ausente",0,B36)*0.2+IF(C36="ausente",0,C36)*0.3+IF(D36="ausente",0,D36)*0.5</f>
@@ -1756,7 +1731,7 @@
         <v>REP.</v>
       </c>
       <c r="J36" s="2" t="n">
-        <f aca="false">G36</f>
+        <f aca="false">IF(OR(G36&lt;4,G36&gt;5.9),G36,IF(I36&gt;6,6,(I36+G36)/2))</f>
         <v>0</v>
       </c>
       <c r="L36" s="2"/>
@@ -1770,34 +1745,34 @@
       <c r="B37" s="2" t="n">
         <v>5.9</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
+      <c r="C37" s="2" t="n">
+        <v>4.6</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>4.5</v>
       </c>
       <c r="E37" s="2" t="n">
         <f aca="false">IF(B37="ausente",0,B37)*0.2+IF(C37="ausente",0,C37)*0.3+IF(D37="ausente",0,D37)*0.5</f>
-        <v>3.43</v>
+        <v>4.81</v>
       </c>
       <c r="F37" s="2" t="n">
         <f aca="false">IF(B37="ausente",0,B37)*0.2+IF(C37="ausente",0,C37)*0.5+IF(D37="ausente",0,D37)*0.3</f>
-        <v>2.53</v>
+        <v>4.83</v>
       </c>
       <c r="G37" s="2" t="n">
         <f aca="false">MAX(E37:F37)</f>
-        <v>3.43</v>
+        <v>4.83</v>
       </c>
       <c r="H37" s="3" t="str">
         <f aca="false">IF(G37&lt;4,"REP.",IF(G37&lt;5.9,"VS","APR."))</f>
-        <v>REP.</v>
+        <v>VS</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <f aca="false">G37</f>
-        <v>3.43</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>11</v>
+        <f aca="false">IF(OR(G37&lt;4,G37&gt;5.9),G37,IF(I37&gt;6,6,(I37+G37)/2))</f>
+        <v>2.415</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>

--- a/gaal/gaal-2025-1/2025-1-gaal-lista-notas.xlsx
+++ b/gaal/gaal-2025-1/2025-1-gaal-lista-notas.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -390,7 +390,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="7.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="3.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.21"/>
   </cols>
@@ -606,11 +606,11 @@
         <v>VS</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J6" s="2" t="n">
         <f aca="false">IF(OR(G6&lt;4,G6&gt;5.9),G6,IF(I6&gt;6,6,(I6+G6)/2))</f>
-        <v>2.005</v>
+        <v>3.555</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -646,11 +646,11 @@
         <v>VS</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="J7" s="2" t="n">
         <f aca="false">IF(OR(G7&lt;4,G7&gt;5.9),G7,IF(I7&gt;6,6,(I7+G7)/2))</f>
-        <v>2.74</v>
+        <v>6</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1204,11 +1204,11 @@
         <v>VS</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="J22" s="2" t="n">
         <f aca="false">IF(OR(G22&lt;4,G22&gt;5.9),G22,IF(I22&gt;6,6,(I22+G22)/2))</f>
-        <v>2.42</v>
+        <v>4.32</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1318,11 +1318,11 @@
         <v>VS</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J25" s="2" t="n">
         <f aca="false">IF(OR(G25&lt;4,G25&gt;5.9),G25,IF(I25&gt;6,6,(I25+G25)/2))</f>
-        <v>2.02</v>
+        <v>2.57</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1543,11 +1543,11 @@
         <v>VS</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="J31" s="2" t="n">
         <f aca="false">IF(OR(G31&lt;4,G31&gt;5.9),G31,IF(I31&gt;6,6,(I31+G31)/2))</f>
-        <v>2.79</v>
+        <v>5.49</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1768,11 +1768,11 @@
         <v>VS</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J37" s="2" t="n">
         <f aca="false">IF(OR(G37&lt;4,G37&gt;5.9),G37,IF(I37&gt;6,6,(I37+G37)/2))</f>
-        <v>2.415</v>
+        <v>4.165</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
